--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -2,14 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapters" sheetId="2" r:id="rId1"/>
+    <sheet name="3.2_Danger Signs" sheetId="1" r:id="rId2"/>
+    <sheet name="3.3_Instruction Signs" sheetId="3" r:id="rId3"/>
+    <sheet name="3.4_Direction Signs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <r>
       <t xml:space="preserve">What do you do when you see this traffic sign? 
@@ -1143,12 +1146,289 @@
       <t>c) Wild animals crossing</t>
     </r>
   </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Personal Prerequisites / Human Risk Factor</t>
+  </si>
+  <si>
+    <t>Restriction of physical abilities</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Illegal drugs and medicines</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>Legal Conditions</t>
+  </si>
+  <si>
+    <t>Registeration of vehicles, vehicle papers</t>
+  </si>
+  <si>
+    <t>Vehicle Inspections</t>
+  </si>
+  <si>
+    <t>Insurances, loss of insurance cover</t>
+  </si>
+  <si>
+    <t>Traffic signs and Devices</t>
+  </si>
+  <si>
+    <t>Basic rules</t>
+  </si>
+  <si>
+    <t>Danger signs</t>
+  </si>
+  <si>
+    <t>Instruction signs</t>
+  </si>
+  <si>
+    <t>Direction signs</t>
+  </si>
+  <si>
+    <t>Self perception, rules of driving and 
+roles of driver</t>
+  </si>
+  <si>
+    <t>Road system and ist use</t>
+  </si>
+  <si>
+    <t>Road Markings</t>
+  </si>
+  <si>
+    <t>Road Usage</t>
+  </si>
+  <si>
+    <t>Motorways and highways Part 1</t>
+  </si>
+  <si>
+    <t>Motorways and highways Part 2</t>
+  </si>
+  <si>
+    <t>Motorways and highways Part 3</t>
+  </si>
+  <si>
+    <t>Right of way</t>
+  </si>
+  <si>
+    <t>Turning left / giving way to oncoming traffic</t>
+  </si>
+  <si>
+    <t>Right before left</t>
+  </si>
+  <si>
+    <t>Traffic signs showing right of way</t>
+  </si>
+  <si>
+    <t>Major road with turn</t>
+  </si>
+  <si>
+    <t>Roundabout traffic</t>
+  </si>
+  <si>
+    <t>Traffic regulations / crossings</t>
+  </si>
+  <si>
+    <t>Traffic control using signals</t>
+  </si>
+  <si>
+    <t>Green arrow sign</t>
+  </si>
+  <si>
+    <t>Permenant signs</t>
+  </si>
+  <si>
+    <t>Traffic control by police officers</t>
+  </si>
+  <si>
+    <t>Special traffic situations</t>
+  </si>
+  <si>
+    <t>Crossings</t>
+  </si>
+  <si>
+    <t>Speed, distance and eco-friendly driving</t>
+  </si>
+  <si>
+    <t>Significance of Speed</t>
+  </si>
+  <si>
+    <t>Choice of speed</t>
+  </si>
+  <si>
+    <t>Speed regulations</t>
+  </si>
+  <si>
+    <t>Braking / Stopping distance</t>
+  </si>
+  <si>
+    <t>Safety distances</t>
+  </si>
+  <si>
+    <t>Negotiating intersections and junctions</t>
+  </si>
+  <si>
+    <t>Other road traffic : Specifics and Behaviour</t>
+  </si>
+  <si>
+    <t>Public transport</t>
+  </si>
+  <si>
+    <t>Motorcycles</t>
+  </si>
+  <si>
+    <t>Large and heavy vehicles</t>
+  </si>
+  <si>
+    <t>Cyclists</t>
+  </si>
+  <si>
+    <t>Pedestrians</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Elderly and disabled people</t>
+  </si>
+  <si>
+    <t>Measures for calming the traffic</t>
+  </si>
+  <si>
+    <t>Traffic behaviour during driving maneuvers</t>
+  </si>
+  <si>
+    <t>Stationary traffic</t>
+  </si>
+  <si>
+    <t>What to do in special situations</t>
+  </si>
+  <si>
+    <t>Lifelong learning</t>
+  </si>
+  <si>
+    <t>Driving solo motor vehicles and trains</t>
+  </si>
+  <si>
+    <t>Technical conditions</t>
+  </si>
+  <si>
+    <t>Entering, approaching</t>
+  </si>
+  <si>
+    <t>Driving alongside</t>
+  </si>
+  <si>
+    <t>Passing</t>
+  </si>
+  <si>
+    <t>Overtaking</t>
+  </si>
+  <si>
+    <t>Turning</t>
+  </si>
+  <si>
+    <t>Driving in reverse</t>
+  </si>
+  <si>
+    <t>Attaching trailers</t>
+  </si>
+  <si>
+    <t>Connecting and Seperating</t>
+  </si>
+  <si>
+    <t>Driving with trailers</t>
+  </si>
+  <si>
+    <t>Passenger transport</t>
+  </si>
+  <si>
+    <t>Goods transport</t>
+  </si>
+  <si>
+    <t>Social regulations</t>
+  </si>
+  <si>
+    <t>General Safety</t>
+  </si>
+  <si>
+    <t>Traffic safety</t>
+  </si>
+  <si>
+    <t>Other motor vehicle technology</t>
+  </si>
+  <si>
+    <t>Electronic aids</t>
+  </si>
+  <si>
+    <t>Physics of driving</t>
+  </si>
+  <si>
+    <t>Using the brakes</t>
+  </si>
+  <si>
+    <t>Eco-friendly use of motor vehicles</t>
+  </si>
+  <si>
+    <t>Beginners and yound drivers</t>
+  </si>
+  <si>
+    <t>Yound drivers - Legislative measures</t>
+  </si>
+  <si>
+    <t>Penalty for misconduct</t>
+  </si>
+  <si>
+    <t>Using the lights</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>How to deal with special vehicles</t>
+  </si>
+  <si>
+    <t>What to do in case of accident</t>
+  </si>
+  <si>
+    <t>Towing and Hauling</t>
+  </si>
+  <si>
+    <t>Warning Signs</t>
+  </si>
+  <si>
+    <t>Stopping and Parking</t>
+  </si>
+  <si>
+    <t>Stopping restrictions</t>
+  </si>
+  <si>
+    <t>parking restrictions</t>
+  </si>
+  <si>
+    <t>Devices for monitoring parking time</t>
+  </si>
+  <si>
+    <t>Getting in and out</t>
+  </si>
+  <si>
+    <t>Swerving</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,16 +1450,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF007E39"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1202,11 +1527,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,12 +1660,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3100,20 +3615,911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>2</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7">
+        <f>88+47+4</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>5</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="7">
+        <f>15+16+28</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>7</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="7">
+        <f>13+13+73</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>8</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="7">
+        <f>31+12+52</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>9</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="7">
+        <f>27+118</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>10</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="7">
+        <f>21+7+17</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>11</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="47">
+        <v>12</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="48"/>
+      <c r="B75" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="50"/>
+      <c r="B77" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="47">
+        <v>13</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="52">
+        <f>89+59</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="48"/>
+      <c r="B79" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="48"/>
+      <c r="B80" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="48"/>
+      <c r="B81" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="48"/>
+      <c r="B82" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="48"/>
+      <c r="B83" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="48"/>
+      <c r="B84" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+      <c r="B85" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="47">
+        <v>14</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="52">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="48"/>
+      <c r="B87" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="48"/>
+      <c r="B88" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="48"/>
+      <c r="B89" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="48"/>
+      <c r="B90" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="51"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="48"/>
+      <c r="B91" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="49"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="50"/>
+      <c r="B92" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="49"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="18"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="18"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="18"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="A61:A66"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -3124,7 +4530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -3133,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -3142,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -3151,7 +4557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3160,7 +4566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -3169,7 +4575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -3178,7 +4584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -3187,7 +4593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -3196,7 +4602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -3205,7 +4611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -3214,7 +4620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -3223,7 +4629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -3232,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -3241,7 +4647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -3250,7 +4656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -3259,7 +4665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -3268,7 +4674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -3277,7 +4683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -3286,7 +4692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -3295,7 +4701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -3304,7 +4710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -3313,7 +4719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -3322,7 +4728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -3331,7 +4737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -3340,7 +4746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -3349,7 +4755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -3358,7 +4764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -3367,7 +4773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -3376,7 +4782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -3385,7 +4791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -3394,7 +4800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -3403,7 +4809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -3412,7 +4818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -3421,7 +4827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -3430,7 +4836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -3439,7 +4845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -3448,7 +4854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -3457,7 +4863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -3466,7 +4872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -3475,7 +4881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -3484,7 +4890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -3493,7 +4899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -3502,7 +4908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -3511,7 +4917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -3522,14 +4928,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>46</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3539,4 +4945,30 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="3.3_Instruction Signs" sheetId="3" r:id="rId3"/>
     <sheet name="3.4_Direction Signs" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chapters!$C$1:$C$96</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3611,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E96"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,296 +3627,305 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="23">
+        <v>48</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="23">
-        <v>48</v>
+      <c r="A3" s="50"/>
+      <c r="B3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="42">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
       <c r="B4" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="42">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="42">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="41" t="s">
+      <c r="B7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C7" s="43">
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="24">
+        <v>14</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
-        <v>2</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="24">
-        <v>14</v>
+      <c r="A9" s="52"/>
+      <c r="B9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="42">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="30" t="s">
-        <v>57</v>
+      <c r="A11" s="53"/>
+      <c r="B11" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="42">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A12" s="54">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C12" s="6">
         <f>88+47+4</f>
         <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="30">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="30">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="30">
-        <v>46</v>
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="8">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="8">
-        <v>51</v>
+      <c r="A16" s="55"/>
+      <c r="B16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="10">
-        <v>35</v>
+      <c r="A17" s="54">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="9">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
-        <v>4</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="9">
-        <v>72</v>
+      <c r="A18" s="54"/>
+      <c r="B18" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="30">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="8">
-        <v>9</v>
+      <c r="B19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="30">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="8">
-        <v>32</v>
+      <c r="B22" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="35">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="10">
-        <v>9</v>
+      <c r="A23" s="47">
+        <v>5</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="9">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
-        <v>5</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="9">
-        <v>73</v>
+      <c r="A24" s="48"/>
+      <c r="B24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="12" t="s">
-        <v>72</v>
+      <c r="B25" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="13" t="s">
-        <v>73</v>
+      <c r="B26" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C26" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="8">
-        <v>15</v>
+      <c r="A28" s="49"/>
+      <c r="B28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+      <c r="A29" s="47">
         <v>6</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C29" s="6">
         <f>15+16+28</f>
         <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="11">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="11">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="11">
         <v>3</v>
@@ -3922,157 +3934,157 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="47">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="47">
-        <v>7</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C36" s="6">
         <f>13+13+73</f>
         <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="11">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="11">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="11">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="11">
-        <v>14</v>
+      <c r="A42" s="49"/>
+      <c r="B42" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="48">
+      <c r="A43" s="48">
         <v>8</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C43" s="6">
         <f>31+12+52</f>
         <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="48"/>
+      <c r="B44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="11">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="11">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
       <c r="B47" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="11">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="11">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="11">
         <v>17</v>
@@ -4081,405 +4093,399 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" s="11">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="11">
-        <v>10</v>
+      <c r="A51" s="49"/>
+      <c r="B51" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="47">
+      <c r="A52" s="47">
         <v>9</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C52" s="6">
         <f>27+118</f>
         <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="32">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="32">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
-      <c r="B55" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="32">
-        <v>16</v>
+      <c r="B55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="11">
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" s="11">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" s="11">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
-      <c r="B58" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="11">
-        <v>33</v>
+      <c r="B58" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="32">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="32">
-        <v>3</v>
+      <c r="A59" s="49"/>
+      <c r="B59" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="47">
+      <c r="A60" s="47">
         <v>10</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C60" s="6">
         <f>21+7+17</f>
         <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="B61" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="22">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="22">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
-      <c r="B64" s="18" t="s">
-        <v>136</v>
+      <c r="B64" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C64" s="22">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="22">
-        <v>5</v>
+      <c r="A65" s="49"/>
+      <c r="B65" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="16">
-        <v>8</v>
+      <c r="A66" s="47">
+        <v>11</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="6">
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="47">
-        <v>11</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="6">
-        <v>98</v>
+      <c r="A67" s="48"/>
+      <c r="B67" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="11">
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C68" s="11">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
       <c r="B69" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69" s="11">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
       <c r="B70" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="11">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="48"/>
-      <c r="B71" s="18" t="s">
-        <v>131</v>
+      <c r="B71" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C71" s="11">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="11">
+      <c r="A72" s="49"/>
+      <c r="B72" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="39">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="39">
-        <v>7</v>
+      <c r="A73" s="44">
+        <v>12</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="28">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="44">
-        <v>12</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="28">
-        <v>11</v>
+      <c r="A74" s="45"/>
+      <c r="B74" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="30">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="45"/>
       <c r="B75" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C75" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="30">
-        <v>6</v>
+      <c r="A76" s="46"/>
+      <c r="B76" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="44">
+      <c r="A77" s="44">
         <v>13</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B77" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C77" s="28">
         <f>89+59</f>
         <v>148</v>
       </c>
-      <c r="E78" s="27"/>
+      <c r="E77" s="27"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="45"/>
+      <c r="B78" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="45"/>
       <c r="B79" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C79" s="30">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="45"/>
       <c r="B80" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C80" s="30">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="45"/>
-      <c r="B81" s="33" t="s">
-        <v>120</v>
+      <c r="B81" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="C81" s="30">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="45"/>
-      <c r="B82" s="31" t="s">
-        <v>121</v>
+      <c r="B82" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="C82" s="30">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="45"/>
-      <c r="B83" s="34" t="s">
-        <v>122</v>
+      <c r="B83" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="C83" s="30">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="30">
-        <v>2</v>
+      <c r="A84" s="46"/>
+      <c r="B84" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="35">
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" s="35">
-        <v>62</v>
+      <c r="A85" s="44">
+        <v>14</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="28">
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="44">
-        <v>14</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" s="28">
-        <v>79</v>
+      <c r="A86" s="45"/>
+      <c r="B86" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="37">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="45"/>
       <c r="B87" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C87" s="37">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="C87" s="30">
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="45"/>
       <c r="B88" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C88" s="30">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="45"/>
       <c r="B89" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="45"/>
-      <c r="B90" s="33" t="s">
-        <v>115</v>
+      <c r="B90" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="C90" s="30">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C91" s="30">
-        <v>24</v>
+      <c r="A91" s="46"/>
+      <c r="B91" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="35">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="35">
-        <v>3</v>
-      </c>
+      <c r="B92" s="17"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
@@ -4490,25 +4496,23 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="17"/>
-    </row>
   </sheetData>
+  <autoFilter ref="C1:C96"/>
   <mergeCells count="14">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A60:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4519,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="2" r:id="rId1"/>
-    <sheet name="3.2_Danger Signs" sheetId="1" r:id="rId2"/>
-    <sheet name="3.3_Instruction Signs" sheetId="3" r:id="rId3"/>
-    <sheet name="3.4_Direction Signs" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
+    <sheet name="3.2_Danger Signs" sheetId="1" r:id="rId3"/>
+    <sheet name="3.3_Instruction Signs" sheetId="3" r:id="rId4"/>
+    <sheet name="3.4_Direction Signs" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chapters!$C$1:$C$96</definedName>
@@ -1911,8 +1912,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,6 +1969,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2132,7 +2140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2164,9 +2172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2194,6 +2199,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2212,42 +2247,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5909,18 +5919,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -5931,102 +5941,102 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="19">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="38">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="38">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -6037,26 +6047,26 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -6064,8 +6074,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
       <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
@@ -6073,8 +6083,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -6084,26 +6094,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
       <c r="B20" s="8" t="s">
         <v>68</v>
       </c>
@@ -6111,8 +6121,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -6120,17 +6130,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="49">
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -6140,8 +6150,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -6149,8 +6159,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
       <c r="B25" s="13" t="s">
         <v>73</v>
       </c>
@@ -6158,8 +6168,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
       <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
@@ -6167,8 +6177,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
       <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
@@ -6176,8 +6186,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
       <c r="B28" s="15" t="s">
         <v>76</v>
       </c>
@@ -6185,8 +6195,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="51">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="49">
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -6197,8 +6207,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
       <c r="B30" s="12" t="s">
         <v>78</v>
       </c>
@@ -6206,53 +6216,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="30" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="37" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="35">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="51">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
         <v>7</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -6263,8 +6273,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
       <c r="B37" s="12" t="s">
         <v>85</v>
       </c>
@@ -6272,8 +6282,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
       <c r="B38" s="12" t="s">
         <v>86</v>
       </c>
@@ -6281,8 +6291,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
       <c r="B39" s="12" t="s">
         <v>87</v>
       </c>
@@ -6290,8 +6300,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
       <c r="B40" s="12" t="s">
         <v>88</v>
       </c>
@@ -6299,8 +6309,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
       <c r="B41" s="12" t="s">
         <v>89</v>
       </c>
@@ -6308,8 +6318,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
       <c r="B42" s="15" t="s">
         <v>90</v>
       </c>
@@ -6317,8 +6327,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="52">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="50">
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -6329,8 +6339,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="52"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
       <c r="B44" s="12" t="s">
         <v>92</v>
       </c>
@@ -6338,8 +6348,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
       <c r="B45" s="12" t="s">
         <v>93</v>
       </c>
@@ -6347,8 +6357,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
       <c r="B46" s="12" t="s">
         <v>94</v>
       </c>
@@ -6356,8 +6366,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
       <c r="B47" s="12" t="s">
         <v>95</v>
       </c>
@@ -6365,8 +6375,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
       <c r="B48" s="12" t="s">
         <v>96</v>
       </c>
@@ -6374,8 +6384,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
       <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
@@ -6383,8 +6393,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="50"/>
       <c r="B50" s="12" t="s">
         <v>98</v>
       </c>
@@ -6392,8 +6402,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
       <c r="B51" s="15" t="s">
         <v>99</v>
       </c>
@@ -6401,8 +6411,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="49">
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -6413,26 +6423,26 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="52"/>
-      <c r="B53" s="30" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="50"/>
+      <c r="B53" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="28">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="52"/>
-      <c r="B54" s="30" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="28">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="52"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
       <c r="B55" s="12" t="s">
         <v>108</v>
       </c>
@@ -6440,8 +6450,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="52"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
       <c r="B56" s="12" t="s">
         <v>109</v>
       </c>
@@ -6449,8 +6459,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="52"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="50"/>
       <c r="B57" s="12" t="s">
         <v>110</v>
       </c>
@@ -6458,26 +6468,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="52"/>
-      <c r="B58" s="30" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
+      <c r="B58" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="37" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="51">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="49">
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -6488,53 +6498,53 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
-      <c r="B61" s="18" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="60">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
-      <c r="B62" s="18" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="50"/>
+      <c r="B62" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="60">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="18" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="50"/>
+      <c r="B63" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="60">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
-      <c r="B64" s="19" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="50"/>
+      <c r="B64" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="60">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="20" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="63">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="51">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="49">
         <v>11</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -6544,8 +6554,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="52"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
       <c r="B67" s="18" t="s">
         <v>128</v>
       </c>
@@ -6553,245 +6563,250 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="52"/>
-      <c r="B68" s="43" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="50"/>
+      <c r="B68" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="28">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="52"/>
-      <c r="B69" s="43" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="28">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="52"/>
-      <c r="B70" s="43" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+      <c r="B70" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="28">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="52"/>
-      <c r="B71" s="44" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+      <c r="B71" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="39" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="51"/>
+      <c r="B72" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="38">
+      <c r="C72" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="54">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="46">
         <v>12</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73" s="24">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="55"/>
-      <c r="B74" s="32" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="47"/>
+      <c r="B74" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="29">
+      <c r="C74" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
-      <c r="B75" s="32" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="47"/>
+      <c r="B75" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
-      <c r="B76" s="37" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="34">
+      <c r="C76" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="54">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="46">
         <v>13</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="24">
         <f>89+59</f>
         <v>148</v>
       </c>
-      <c r="E77" s="26"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="55"/>
-      <c r="B78" s="32" t="s">
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="29">
+      <c r="C78" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="32" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="26">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="32" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
-      <c r="B81" s="30" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="47"/>
+      <c r="B81" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="26">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="33" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="47"/>
+      <c r="B82" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="30" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="47"/>
+      <c r="B83" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="29">
+      <c r="C83" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="56"/>
-      <c r="B84" s="34" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="48"/>
+      <c r="B84" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="34">
+      <c r="C84" s="31">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="54">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="46">
         <v>14</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85" s="24">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
-      <c r="B86" s="32" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="47"/>
+      <c r="B86" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="36">
+      <c r="C86" s="33">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
-      <c r="B87" s="32" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="47"/>
+      <c r="B87" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="29">
+      <c r="C87" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="55"/>
-      <c r="B88" s="32" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="47"/>
+      <c r="B88" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="29">
+      <c r="C88" s="26">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="55"/>
-      <c r="B89" s="32" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="47"/>
+      <c r="B89" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="29">
+      <c r="C89" s="26">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="55"/>
-      <c r="B90" s="30" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="47"/>
+      <c r="B90" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="29">
+      <c r="C90" s="26">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="56"/>
-      <c r="B91" s="35" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="48"/>
+      <c r="B91" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="34">
+      <c r="C91" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C96"/>
   <mergeCells count="14">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A84"/>
     <mergeCell ref="A85:A91"/>
@@ -6801,11 +6816,6 @@
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6814,20 +6824,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -6838,7 +6862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -6847,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -6856,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -6865,7 +6889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -6874,7 +6898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -6883,7 +6907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -6892,7 +6916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -6901,7 +6925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -6910,7 +6934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -6919,7 +6943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -6928,7 +6952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -6937,7 +6961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -6946,7 +6970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -6955,7 +6979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -6964,7 +6988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -6973,7 +6997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -6982,7 +7006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -6991,7 +7015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -7000,7 +7024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -7009,7 +7033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -7018,7 +7042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -7027,7 +7051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -7036,7 +7060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -7045,7 +7069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -7054,7 +7078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -7063,7 +7087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -7072,7 +7096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -7081,7 +7105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -7090,7 +7114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -7099,7 +7123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -7108,7 +7132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -7117,7 +7141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -7126,7 +7150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -7135,7 +7159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -7144,7 +7168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -7153,7 +7177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -7162,7 +7186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -7171,7 +7195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -7180,7 +7204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -7189,7 +7213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -7198,7 +7222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -7207,7 +7231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -7216,7 +7240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -7225,7 +7249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -7236,14 +7260,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>46</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7255,183 +7279,183 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="86.88671875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="59" t="s">
+    <row r="1" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="59" t="s">
+    <row r="2" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="43" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="59" t="s">
+    <row r="4" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="59" t="s">
+    <row r="5" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="59" t="s">
+    <row r="7" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="43" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="59" t="s">
+    <row r="13" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="59" t="s">
+    <row r="14" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="59" t="s">
+    <row r="15" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="3:3" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="58" t="s">
+    <row r="16" spans="3:3" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="59" t="s">
+    <row r="17" spans="3:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="59" t="s">
+    <row r="18" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="59" t="s">
+    <row r="20" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="59" t="s">
+    <row r="21" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="59" t="s">
+    <row r="22" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="43" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:3" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:3" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="59" t="s">
+    <row r="23" spans="3:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:3" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:3" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="43" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="103.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="3:3" ht="94.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="3:3" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="3:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="59" t="s">
+    <row r="29" spans="3:3" ht="103.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:3" ht="94.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:3" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:3" ht="92.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:3" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="43" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="102.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="59" t="s">
+    <row r="38" spans="3:3" ht="102.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="59" t="s">
+    <row r="40" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="59" t="s">
+    <row r="41" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="43" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="3:3" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="59" t="s">
+    <row r="42" spans="3:3" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="43" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="59" t="s">
+    <row r="43" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="43" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="3:3" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="61" t="s">
+    <row r="44" spans="3:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="45" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="59" t="s">
+    <row r="45" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="59" t="s">
+    <row r="46" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="59" t="s">
+    <row r="47" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="59" t="s">
+    <row r="48" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="43" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="59" t="s">
+    <row r="49" spans="3:3" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7439,16 +7463,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>